--- a/medicine/Sexualité et sexologie/Fuck_friend/Fuck_friend.xlsx
+++ b/medicine/Sexualité et sexologie/Fuck_friend/Fuck_friend.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Un « fuck friend », ou « FF », littéralement « ami à baiser », est une expression désignant un partenaire, souvent un ami ou un collègue, avec lequel il existe une relation qui n'est basée que sur l'attirance physique et les besoins sexuels des deux partenaires. Cette relation peut être transitoire entre deux amours ou permanente selon les désirs. Elle permet, entre autres
@@ -514,7 +526,9 @@
           <t>Origine</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le fuck friend est un terme qui a commencé à être utilisé au début des années 2000 avec l'hypersexualisation de la société. Auparavant, il était rare d'en entendre parler, puisque la sexualité était un sujet plutôt tabou, mais cette pratique existait déjà. Cette pratique tend à assurer des plaisirs communs sans s'impliquer émotivement chacun.
 </t>
@@ -545,7 +559,9 @@
           <t>Pièges du fuck friend</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Plusieurs problèmes peuvent survenir lors d'une relation fuck friend :
 un des partenaires tombe amoureux de l'autre, ce problème va à l'encontre des règles sur le fuck friend
